--- a/biology/Biochimie/Lymphotoxine_bêta/Lymphotoxine_bêta.xlsx
+++ b/biology/Biochimie/Lymphotoxine_bêta/Lymphotoxine_bêta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lymphotoxine_b%C3%AAta</t>
+          <t>Lymphotoxine_bêta</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La lymphotoxine β (LT β), ou facteur de nécrose tumorale C (TNF C), est une protéine codée chez l'homme par le gène LTB[2],[3].
+La lymphotoxine β (LT β), ou facteur de nécrose tumorale C (TNF C), est une protéine codée chez l'homme par le gène LTB,.
 La lymphotoxine β est une protéine transmembranaire de la famille des facteurs de nécrose tumorale (TNF). Elle assure l'ancrage de la lymphotoxine α à la surface des cellules à travers la formation d'un hétérotrimère, essentiellement de la forme αβ2, qui est le principal ligand du récepteur de la lymphotoxine β (en) ; le complexe α2β est également observé mais est moins abondant.
 La lymphotoxine β est un déclencher de la réponse inflammatoire et intervient dans le développement normal du système lymphatique. L'isoforme b ne forme pas de complexe avec la lymphotoxine α, de sorte que la lymphotoxine β a probablement d'autres fonctions indépendantes de la lymphotoxine α.
-On a clairement pu établir que la lymphotoxine membranaire favorise le développement des tumeurs : la croissance de tumeurs et des métastases associées est favorisée pour plusieurs types de cancers chez des souris dont l'expression des lymphotoxines α ou β est excessive ; ces études ont cependant fait appel à des souris ayant une déficience totale en lymphotoxine α, ce qui n'a pas permis de distinguer les effets des lymphotoxines solubles et membranaires[4].
+On a clairement pu établir que la lymphotoxine membranaire favorise le développement des tumeurs : la croissance de tumeurs et des métastases associées est favorisée pour plusieurs types de cancers chez des souris dont l'expression des lymphotoxines α ou β est excessive ; ces études ont cependant fait appel à des souris ayant une déficience totale en lymphotoxine α, ce qui n'a pas permis de distinguer les effets des lymphotoxines solubles et membranaires.
 </t>
         </is>
       </c>
